--- a/COC_BOM_0001.xlsx
+++ b/COC_BOM_0001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pereirm2\Desktop\Excel Stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pereirm2\Desktop\Excel 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E290690-D65D-4A56-9994-B28F2EEA69D6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA285C17-45D2-4228-AB2C-9F89501B6166}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{4323CCB7-5948-4B20-A4B0-0F247876F88C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{23E252B9-5ED6-4E97-A1FB-0B735330AA4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t xml:space="preserve">Bill of Material </t>
   </si>
@@ -73,7 +73,7 @@
     <t>Savanna Warehouse</t>
   </si>
   <si>
-    <t>1000 units</t>
+    <t>500 units</t>
   </si>
   <si>
     <t>COC_CASE_CHST_ONE_BSE</t>
@@ -87,6 +87,16 @@
   </si>
   <si>
     <t>750 units</t>
+  </si>
+  <si>
+    <t>COC_CASE_CHST_ONE_HOLD</t>
+  </si>
+  <si>
+    <t>Adhesive Circles
+4 per case</t>
+  </si>
+  <si>
+    <t>3000 units</t>
   </si>
 </sst>
 </file>
@@ -539,22 +549,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7995DB62-FA16-4ACA-9A29-DEE3CE685EEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DAB0FB-48AC-4D46-93A3-239147677170}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -568,7 +577,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -587,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -638,7 +647,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="13"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -651,11 +660,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="11"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="E6" s="11"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
